--- a/medicine/Psychotrope/Le_beaujolais_nouveau_est_arrivé_(film)/Le_beaujolais_nouveau_est_arrivé_(film).xlsx
+++ b/medicine/Psychotrope/Le_beaujolais_nouveau_est_arrivé_(film)/Le_beaujolais_nouveau_est_arrivé_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_beaujolais_nouveau_est_arriv%C3%A9_(film)</t>
+          <t>Le_beaujolais_nouveau_est_arrivé_(film)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le beaujolais nouveau est arrivé est une comédie française sortie en 1978 , réalisée par Jean-Luc Voulfow, d'après le roman éponyme de René Fallet.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_beaujolais_nouveau_est_arriv%C3%A9_(film)</t>
+          <t>Le_beaujolais_nouveau_est_arrivé_(film)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Camadule est prié par tous ses amis d'acheter plusieurs barriques du fameux beaujolais chez une vieille comtesse dont il a les faveurs. Il accepte à condition que tous ses frais soient payés. Après diverses aventures et rebondissements, il revient à Paris avec un camion chargé de bouteilles de vin.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_beaujolais_nouveau_est_arriv%C3%A9_(film)</t>
+          <t>Le_beaujolais_nouveau_est_arrivé_(film)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Le beaujolais nouveau est arrivé
 Réalisation : Jean-Luc Voulfow, assisté de Jean Achache
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_beaujolais_nouveau_est_arriv%C3%A9_(film)</t>
+          <t>Le_beaujolais_nouveau_est_arrivé_(film)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jean Carmet : Camadule
 Michel Galabru : le Capitaine
